--- a/public/template/solution_match.xlsx
+++ b/public/template/solution_match.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21821E1-4658-405B-92C5-4A07E9FF92BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="4620" windowWidth="28215" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -28,19 +17,15 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>分类1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>分类2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>厂商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>品牌</t>
   </si>
   <si>
     <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系统版本</t>
@@ -52,32 +37,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -85,24 +406,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -151,7 +758,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -186,7 +793,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -226,7 +833,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -250,9 +857,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -276,7 +883,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -329,7 +936,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -354,35 +961,30 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,19 +1005,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{DFF32B14-0551-46EE-820F-4FFB9961BF45}">
-      <formula1>"软件,外设"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
+      <formula1>"鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{DBDD24EB-C1F2-4A83-BD1D-0AF007DB8C6A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{8716DDE4-B784-4B04-98E1-C5B7A85485F6}">
-      <formula1>"鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A$1:A$1048576">
+      <formula1>"软件,外设"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/public/template/solution_match.xlsx
+++ b/public/template/solution_match.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>分类1</t>
   </si>
   <si>
     <t>分类2</t>
+  </si>
+  <si>
+    <t>厂商</t>
   </si>
   <si>
     <t>品牌</t>
@@ -40,11 +43,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +70,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -75,15 +153,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,9 +163,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,105 +199,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -213,37 +209,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,145 +377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,21 +408,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,6 +430,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -460,6 +471,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,174 +500,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -973,18 +969,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="27" customWidth="true"/>
+    <col min="6" max="6" width="27" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1003,13 +999,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
       <formula1>"鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
       <formula1>"银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A$1:A$1048576">

--- a/public/template/solution_match.xlsx
+++ b/public/template/solution_match.xlsx
@@ -28,7 +28,7 @@
     <t>品牌</t>
   </si>
   <si>
-    <t>型号</t>
+    <t>产品名称</t>
   </si>
   <si>
     <t>系统版本</t>
@@ -43,9 +43,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -64,31 +64,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,7 +79,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,13 +139,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +147,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -153,50 +192,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -209,187 +209,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,31 +416,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,6 +432,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,6 +472,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -503,145 +503,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -972,7 +972,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>

--- a/public/template/solution_match.xlsx
+++ b/public/template/solution_match.xlsx
@@ -42,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,6 +65,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,6 +86,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -93,11 +155,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,92 +184,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,187 +209,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,15 +436,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -456,6 +447,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,163 +500,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -972,7 +972,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1004,15 +1004,21 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
-      <formula1>"鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
-      <formula1>"银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A$1:A$1048576">
       <formula1>"软件,外设"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G3:G1048576">
+      <formula1>"鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576">
+      <formula1>"银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/solution_match.xlsx
+++ b/public/template/solution_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>分类1</t>
   </si>
@@ -36,16 +36,25 @@
   <si>
     <t>芯片</t>
   </si>
+  <si>
+    <t>填写eco.kylinos.cn上对应分类三，不确定可不填</t>
+  </si>
+  <si>
+    <t>软件必填，外设可不填</t>
+  </si>
+  <si>
+    <t>外设必填，软件可不填</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -64,14 +73,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,116 +201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +218,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -227,91 +242,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,73 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,15 +421,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -432,6 +432,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,16 +476,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,163 +509,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -969,14 +978,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
+    <col min="2" max="2" width="45.8571428571429" customWidth="true"/>
+    <col min="3" max="3" width="41" customWidth="true"/>
+    <col min="4" max="4" width="37.4285714285714" customWidth="true"/>
+    <col min="5" max="5" width="22.2857142857143" customWidth="true"/>
     <col min="6" max="6" width="27" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1003,16 +1016,27 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A$1:A$1048576">
       <formula1>"软件,外设"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G3:G1048576">
       <formula1>"鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>

--- a/public/template/solution_match.xlsx
+++ b/public/template/solution_match.xlsx
@@ -51,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,53 +66,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,6 +118,38 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -140,16 +157,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,53 +181,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,187 +218,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,6 +417,54 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,24 +486,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,186 +509,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -981,7 +981,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1028,18 +1028,15 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A$1:A$1048576">
       <formula1>"软件,外设"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G3:G1048576">
-      <formula1>"鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576">
       <formula1>"银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
